--- a/Documents/COMP1640 Group04 CMS Sprint02.xlsx
+++ b/Documents/COMP1640 Group04 CMS Sprint02.xlsx
@@ -438,7 +438,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF003366"/>
@@ -607,24 +607,6 @@
       </font>
       <fill>
         <patternFill patternType="none"/>
-      </fill>
-      <alignment wrapText="1"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
       </fill>
       <alignment wrapText="1"/>
       <border>
@@ -896,11 +878,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="224542720"/>
-        <c:axId val="224544640"/>
+        <c:axId val="252068224"/>
+        <c:axId val="252070144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="224542720"/>
+        <c:axId val="252068224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -939,7 +921,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224544640"/>
+        <c:crossAx val="252070144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -947,7 +929,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="224544640"/>
+        <c:axId val="252070144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -991,7 +973,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224542720"/>
+        <c:crossAx val="252068224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1303,7 +1285,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1311,13 +1293,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BN82"/>
+  <dimension ref="A1:BM82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BN19" sqref="BN19:BN20"/>
+      <selection pane="bottomRight" activeCell="BN17" sqref="BN17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1979,251 +1961,251 @@
         <v>0</v>
       </c>
       <c r="E16" s="21">
-        <f>SUM(E3:E7)</f>
+        <f t="shared" ref="E16:AJ16" si="2">SUM(E3:E7)</f>
         <v>4</v>
       </c>
       <c r="F16" s="21">
-        <f>SUM(F3:F7)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G16" s="21">
-        <f>SUM(G3:G7)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H16" s="21">
-        <f>SUM(H3:H7)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I16" s="21">
-        <f>SUM(I3:I7)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J16" s="21">
-        <f>SUM(J3:J7)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="K16" s="21">
-        <f>SUM(K3:K7)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="L16" s="21">
-        <f>SUM(L3:L7)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="M16" s="21">
-        <f>SUM(M3:M7)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="N16" s="21">
-        <f>SUM(N3:N7)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O16" s="21">
-        <f>SUM(O3:O7)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="P16" s="21">
-        <f>SUM(P3:P7)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Q16" s="21">
-        <f>SUM(Q3:Q7)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="R16" s="21">
-        <f>SUM(R3:R7)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="S16" s="21">
-        <f>SUM(S3:S7)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="T16" s="21">
-        <f>SUM(T3:T7)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U16" s="21">
-        <f>SUM(U3:U7)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V16" s="21">
-        <f>SUM(V3:V7)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W16" s="21">
-        <f>SUM(W3:W7)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X16" s="21">
-        <f>SUM(X3:X7)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y16" s="21">
-        <f>SUM(Y3:Y7)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z16" s="21">
-        <f>SUM(Z3:Z7)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA16" s="21">
-        <f>SUM(AA3:AA7)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB16" s="21">
-        <f>SUM(AB3:AB7)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC16" s="21">
-        <f>SUM(AC3:AC7)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD16" s="21">
-        <f>SUM(AD3:AD7)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE16" s="21">
-        <f>SUM(AE3:AE7)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF16" s="21">
-        <f>SUM(AF3:AF7)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG16" s="21">
-        <f>SUM(AG3:AG7)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH16" s="21">
-        <f>SUM(AH3:AH7)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI16" s="21">
-        <f>SUM(AI3:AI7)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ16" s="21">
-        <f>SUM(AJ3:AJ7)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK16" s="21">
-        <f>SUM(AK3:AK7)</f>
+        <f t="shared" ref="AK16:BM16" si="3">SUM(AK3:AK7)</f>
         <v>0</v>
       </c>
       <c r="AL16" s="21">
-        <f>SUM(AL3:AL7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM16" s="21">
-        <f>SUM(AM3:AM7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AN16" s="21">
-        <f>SUM(AN3:AN7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AO16" s="21">
-        <f>SUM(AO3:AO7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AP16" s="21">
-        <f>SUM(AP3:AP7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AQ16" s="21">
-        <f>SUM(AQ3:AQ7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AR16" s="21">
-        <f>SUM(AR3:AR7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AS16" s="21">
-        <f>SUM(AS3:AS7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT16" s="21">
-        <f>SUM(AT3:AT7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AU16" s="21">
-        <f>SUM(AU3:AU7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AV16" s="21">
-        <f>SUM(AV3:AV7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AW16" s="21">
-        <f>SUM(AW3:AW7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AX16" s="21">
-        <f>SUM(AX3:AX7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AY16" s="21">
-        <f>SUM(AY3:AY7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AZ16" s="21">
-        <f>SUM(AZ3:AZ7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BA16" s="21">
-        <f>SUM(BA3:BA7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BB16" s="21">
-        <f>SUM(BB3:BB7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BC16" s="21">
-        <f>SUM(BC3:BC7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BD16" s="21">
-        <f>SUM(BD3:BD7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BE16" s="21">
-        <f>SUM(BE3:BE7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BF16" s="21">
-        <f>SUM(BF3:BF7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BG16" s="21">
-        <f>SUM(BG3:BG7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BH16" s="21">
-        <f>SUM(BH3:BH7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BI16" s="21">
-        <f>SUM(BI3:BI7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BJ16" s="21">
-        <f>SUM(BJ3:BJ7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BK16" s="21">
-        <f>SUM(BK3:BK7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BL16" s="21">
-        <f>SUM(BL3:BL7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BM16" s="21">
-        <f>SUM(BM3:BM7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:66" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>7</v>
       </c>
@@ -2324,12 +2306,8 @@
       <c r="BK17" s="28"/>
       <c r="BL17" s="28"/>
       <c r="BM17" s="29"/>
-      <c r="BN17">
-        <f>SUM(E17:BM17)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:66" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="30" t="s">
         <v>8</v>
       </c>
@@ -2342,251 +2320,251 @@
         <v>46</v>
       </c>
       <c r="E18" s="34">
-        <f t="shared" ref="E18:BM18" si="2">D18-E17</f>
+        <f t="shared" ref="E18:BM18" si="4">D18-E17</f>
         <v>42</v>
       </c>
       <c r="F18" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="G18" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="H18" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="I18" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="J18" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="K18" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="L18" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="M18" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="N18" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="O18" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="P18" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="Q18" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="R18" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="S18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T18" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U18" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V18" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W18" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AJ18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AK18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AL18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AR18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AS18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AU18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AV18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AW18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AX18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AY18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AZ18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BA18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BB18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BC18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BD18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BE18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BF18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BG18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BH18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BI18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BJ18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BK18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BL18" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BM18" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:66" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="30" t="s">
         <v>10</v>
       </c>
@@ -2603,247 +2581,247 @@
         <v>42</v>
       </c>
       <c r="F19" s="33">
-        <f>E19-SUM(F3:F15)</f>
+        <f t="shared" ref="F19:AK19" si="5">E19-SUM(F3:F15)</f>
         <v>40</v>
       </c>
       <c r="G19" s="33">
-        <f>F19-SUM(G3:G15)</f>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="H19" s="33">
-        <f>G19-SUM(H3:H15)</f>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="I19" s="33">
-        <f>H19-SUM(I3:I15)</f>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="J19" s="33">
-        <f>I19-SUM(J3:J15)</f>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="K19" s="33">
-        <f>J19-SUM(K3:K15)</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="L19" s="33">
-        <f>K19-SUM(L3:L15)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="M19" s="33">
-        <f>L19-SUM(M3:M15)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="N19" s="33">
-        <f>M19-SUM(N3:N15)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="O19" s="33">
-        <f>N19-SUM(O3:O15)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="P19" s="33">
-        <f>O19-SUM(P3:P15)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="Q19" s="33">
-        <f>P19-SUM(Q3:Q15)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="R19" s="33">
-        <f>Q19-SUM(R3:R15)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="S19" s="33">
-        <f>R19-SUM(S3:S15)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T19" s="33">
-        <f>S19-SUM(T3:T15)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U19" s="33">
-        <f>T19-SUM(U3:U15)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V19" s="33">
-        <f>U19-SUM(V3:V15)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W19" s="33">
-        <f>V19-SUM(W3:W15)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X19" s="31">
-        <f>W19-SUM(X3:X15)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y19" s="31">
-        <f>X19-SUM(Y3:Y15)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z19" s="31">
-        <f>Y19-SUM(Z3:Z15)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA19" s="31">
-        <f>Z19-SUM(AA3:AA15)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB19" s="31">
-        <f>AA19-SUM(AB3:AB15)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC19" s="31">
-        <f>AB19-SUM(AC3:AC15)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD19" s="31">
-        <f>AC19-SUM(AD3:AD15)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE19" s="31">
-        <f>AD19-SUM(AE3:AE15)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF19" s="31">
-        <f>AE19-SUM(AF3:AF15)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG19" s="31">
-        <f>AF19-SUM(AG3:AG15)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH19" s="31">
-        <f>AG19-SUM(AH3:AH15)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI19" s="31">
-        <f>AH19-SUM(AI3:AI15)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ19" s="31">
-        <f>AI19-SUM(AJ3:AJ15)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK19" s="31">
-        <f>AJ19-SUM(AK3:AK15)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL19" s="31">
-        <f>AK19-SUM(AL3:AL15)</f>
+        <f t="shared" ref="AL19:BM19" si="6">AK19-SUM(AL3:AL15)</f>
         <v>0</v>
       </c>
       <c r="AM19" s="31">
-        <f>AL19-SUM(AM3:AM15)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AN19" s="31">
-        <f>AM19-SUM(AN3:AN15)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AO19" s="31">
-        <f>AN19-SUM(AO3:AO15)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AP19" s="31">
-        <f>AO19-SUM(AP3:AP15)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AQ19" s="31">
-        <f>AP19-SUM(AQ3:AQ15)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AR19" s="31">
-        <f>AQ19-SUM(AR3:AR15)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AS19" s="31">
-        <f>AR19-SUM(AS3:AS15)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AT19" s="31">
-        <f>AS19-SUM(AT3:AT15)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AU19" s="31">
-        <f>AT19-SUM(AU3:AU15)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV19" s="31">
-        <f>AU19-SUM(AV3:AV15)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AW19" s="31">
-        <f>AV19-SUM(AW3:AW15)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AX19" s="31">
-        <f>AW19-SUM(AX3:AX15)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AY19" s="31">
-        <f>AX19-SUM(AY3:AY15)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ19" s="31">
-        <f>AY19-SUM(AZ3:AZ15)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BA19" s="31">
-        <f>AZ19-SUM(BA3:BA15)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BB19" s="31">
-        <f>BA19-SUM(BB3:BB15)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BC19" s="31">
-        <f>BB19-SUM(BC3:BC15)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD19" s="31">
-        <f>BC19-SUM(BD3:BD15)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BE19" s="31">
-        <f>BD19-SUM(BE3:BE15)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF19" s="31">
-        <f>BE19-SUM(BF3:BF15)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BG19" s="31">
-        <f>BF19-SUM(BG3:BG15)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BH19" s="31">
-        <f>BG19-SUM(BH3:BH15)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BI19" s="31">
-        <f>BH19-SUM(BI3:BI15)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BJ19" s="31">
-        <f>BI19-SUM(BJ3:BJ15)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BK19" s="31">
-        <f>BJ19-SUM(BK3:BK15)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BL19" s="31">
-        <f>BK19-SUM(BL3:BL15)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BM19" s="31">
-        <f>BL19-SUM(BM3:BM15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:66" ht="18" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:65" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>12</v>
       </c>
@@ -2911,7 +2889,7 @@
       <c r="BL20" s="36"/>
       <c r="BM20" s="36"/>
     </row>
-    <row r="21" spans="1:66" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:65" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>13</v>
       </c>
@@ -2979,37 +2957,37 @@
       <c r="BL21" s="36"/>
       <c r="BM21" s="36"/>
     </row>
-    <row r="22" spans="1:66" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
     </row>
-    <row r="23" spans="1:66" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="37"/>
     </row>
-    <row r="24" spans="1:66" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="37"/>
     </row>
-    <row r="25" spans="1:66" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="37"/>
     </row>
-    <row r="26" spans="1:66" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="37"/>
     </row>
-    <row r="27" spans="1:66" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="37"/>
     </row>
-    <row r="28" spans="1:66" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="37"/>
     </row>
-    <row r="29" spans="1:66" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="37"/>
     </row>
-    <row r="30" spans="1:66" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="37"/>
     </row>
-    <row r="31" spans="1:66" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="37"/>
     </row>
-    <row r="32" spans="1:66" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="37"/>
     </row>
     <row r="33" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">

--- a/Documents/COMP1640 Group04 CMS Sprint02.xlsx
+++ b/Documents/COMP1640 Group04 CMS Sprint02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -66,12 +66,24 @@
   <si>
     <t>Complete UserRoles</t>
   </si>
+  <si>
+    <t>Tasks Management:</t>
+  </si>
+  <si>
+    <t>Email: khanhtt0310@gmail.com</t>
+  </si>
+  <si>
+    <t>Password: 4learning!</t>
+  </si>
+  <si>
+    <t>https://trello.com/b/9JWSQlGd/sprint-02</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -138,6 +150,12 @@
       <u/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -307,10 +325,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -434,8 +453,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
@@ -878,11 +901,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="252068224"/>
-        <c:axId val="252070144"/>
+        <c:axId val="148048896"/>
+        <c:axId val="148071552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="252068224"/>
+        <c:axId val="148048896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -921,7 +944,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252070144"/>
+        <c:crossAx val="148071552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -929,7 +952,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="252070144"/>
+        <c:axId val="148071552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -973,7 +996,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252068224"/>
+        <c:crossAx val="148048896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1285,7 +1308,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1299,7 +1322,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BN17" sqref="BN17"/>
+      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2960,20 +2983,26 @@
     <row r="22" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
     </row>
-    <row r="23" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="37"/>
-    </row>
+    <row r="23" spans="1:65" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="37"/>
+      <c r="A24" s="37" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="25" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="37"/>
+      <c r="A25" s="41" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="26" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="37"/>
+      <c r="A26" s="37" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="27" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="37"/>
+      <c r="A27" s="37" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="28" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="37"/>
@@ -3207,9 +3236,10 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="A25" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>